--- a/ALL_DATA/TIFF_seagrass/2018_data_efforts/sites_2018.xlsx
+++ b/ALL_DATA/TIFF_seagrass/2018_data_efforts/sites_2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiff/Desktop/R Studio/APECS-master-repos/ALL_DATA/TIFF_seagrass/2018_data_efforts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11335883-6C65-264D-99DF-8AD0E925C23D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC968708-2569-F64E-ADC5-E90789EEB675}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12020" yWindow="1220" windowWidth="14120" windowHeight="18700" xr2:uid="{B7656634-A4D9-CB4B-BCBA-A716DC3A2AB6}"/>
+    <workbookView xWindow="62000" yWindow="0" windowWidth="10000" windowHeight="18700" xr2:uid="{B7656634-A4D9-CB4B-BCBA-A716DC3A2AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="100">
   <si>
     <t>site</t>
   </si>
@@ -167,6 +167,165 @@
   </si>
   <si>
     <t>so_region1</t>
+  </si>
+  <si>
+    <t>site_name</t>
+  </si>
+  <si>
+    <t>Salt Lake Bay b</t>
+  </si>
+  <si>
+    <t>Nossuk Bay b</t>
+  </si>
+  <si>
+    <t>Nossuk Bay c</t>
+  </si>
+  <si>
+    <t>Chusini Cove b</t>
+  </si>
+  <si>
+    <t>Kaguk Cove a</t>
+  </si>
+  <si>
+    <t>Naukati Bay b</t>
+  </si>
+  <si>
+    <t>Guktu Bay b</t>
+  </si>
+  <si>
+    <t>Blanquizal Bay a</t>
+  </si>
+  <si>
+    <t>Soda Bay a</t>
+  </si>
+  <si>
+    <t>Goats Mouth Inlet a</t>
+  </si>
+  <si>
+    <t>North Pass b</t>
+  </si>
+  <si>
+    <t>Natzuhini Bay b</t>
+  </si>
+  <si>
+    <t>Natzuhini Bay c</t>
+  </si>
+  <si>
+    <t>Dunbar Inlet a</t>
+  </si>
+  <si>
+    <t>S Fish Egg Island a</t>
+  </si>
+  <si>
+    <t>S Wadleigh Island a</t>
+  </si>
+  <si>
+    <t>Shinaku Inlet a</t>
+  </si>
+  <si>
+    <t>Garcia Bay a</t>
+  </si>
+  <si>
+    <t>Port Refugio a</t>
+  </si>
+  <si>
+    <t>Kinani Point a</t>
+  </si>
+  <si>
+    <t>Sukkwan Narrows a</t>
+  </si>
+  <si>
+    <t>Mushroom Island a</t>
+  </si>
+  <si>
+    <t>Big Clam Bay a</t>
+  </si>
+  <si>
+    <t>Port Caldera a</t>
+  </si>
+  <si>
+    <t>Big Tree Bay a</t>
+  </si>
+  <si>
+    <t>H_08_a</t>
+  </si>
+  <si>
+    <t>H_04_a</t>
+  </si>
+  <si>
+    <t>H_07_a</t>
+  </si>
+  <si>
+    <t>L_10_a</t>
+  </si>
+  <si>
+    <t>L_09_a</t>
+  </si>
+  <si>
+    <t>L_08_a</t>
+  </si>
+  <si>
+    <t>L_01_a</t>
+  </si>
+  <si>
+    <t>L_02_a</t>
+  </si>
+  <si>
+    <t>L_05_a</t>
+  </si>
+  <si>
+    <t>M_10_a</t>
+  </si>
+  <si>
+    <t>M_09_a</t>
+  </si>
+  <si>
+    <t>M_02_a</t>
+  </si>
+  <si>
+    <t>M_03_a</t>
+  </si>
+  <si>
+    <t>M_04_a</t>
+  </si>
+  <si>
+    <t>M_05_a</t>
+  </si>
+  <si>
+    <t>M_07_a</t>
+  </si>
+  <si>
+    <t>M_08_a</t>
+  </si>
+  <si>
+    <t>H_01_b</t>
+  </si>
+  <si>
+    <t>H_02_b</t>
+  </si>
+  <si>
+    <t>H_03_b</t>
+  </si>
+  <si>
+    <t>H_05_b</t>
+  </si>
+  <si>
+    <t>H_06_b</t>
+  </si>
+  <si>
+    <t>L_03_b</t>
+  </si>
+  <si>
+    <t>L_04_b</t>
+  </si>
+  <si>
+    <t>site__code</t>
+  </si>
+  <si>
+    <t>H_02_c</t>
+  </si>
+  <si>
+    <t>L_04_c</t>
   </si>
 </sst>
 </file>
@@ -523,886 +682,968 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C252BE23-1EDC-7A4D-A693-E082E052B44D}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="1" customWidth="1"/>
-    <col min="2" max="8" width="10.83203125" style="1"/>
-    <col min="9" max="9" width="10.83203125" style="2"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="16.1640625" style="1" customWidth="1"/>
+    <col min="3" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="10.83203125" style="2"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1">
-        <v>-132.97393199999999</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C2" s="1">
-        <v>55.227691</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>-133.377377</v>
+      </c>
+      <c r="D2" s="1">
+        <v>55.684275</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="2">
-        <v>43294</v>
+      <c r="H2" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I2" s="2">
-        <v>43299</v>
+        <v>43238</v>
       </c>
       <c r="J2" s="2">
-        <v>43307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>43227</v>
+      </c>
+      <c r="K2" s="2">
+        <v>43293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>-133.21551199999999</v>
+        <v>91</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C3" s="1">
-        <v>55.585855000000002</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>-133.34832599999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>55.709094</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="2">
-        <v>43292</v>
+      <c r="H3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I3" s="2">
-        <v>43300</v>
+        <v>43239</v>
       </c>
       <c r="J3" s="2">
-        <v>43313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>43225</v>
+      </c>
+      <c r="K3" s="2">
+        <v>43317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>-133.387067</v>
+        <v>98</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C4" s="1">
-        <v>55.621174000000003</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>-133.32537199999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>55.722636999999999</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="2">
-        <v>43269</v>
+        <v>43</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="I4" s="2">
-        <v>43276</v>
+        <v>43281</v>
       </c>
       <c r="J4" s="2">
+        <v>43225</v>
+      </c>
+      <c r="K4" s="2">
         <v>43317</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
+        <v>92</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1">
         <v>-133.16740300000001</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>55.813558</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="2">
         <v>43264</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>43258</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>43308</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1">
-        <v>-132.82599999999999</v>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C6" s="1">
-        <v>55.084800000000001</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>-133.29047</v>
+      </c>
+      <c r="D6" s="1">
+        <v>55.733423000000002</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="2">
-        <v>43323</v>
+        <v>43</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="I6" s="2">
-        <v>43305</v>
+        <v>43250</v>
       </c>
       <c r="J6" s="2">
-        <v>43322</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-133.43003200000001</v>
-      </c>
-      <c r="C7" s="1">
-        <v>55.552180999999997</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>43257</v>
+      </c>
+      <c r="K6" s="2">
+        <v>43312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>-133.15639899999999</v>
+      </c>
+      <c r="D7">
+        <v>55.865721000000001</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="2">
-        <v>43293</v>
+      <c r="H7" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I7" s="2">
-        <v>43243</v>
+        <v>43249</v>
       </c>
       <c r="J7" s="2">
-        <v>43306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>43257</v>
+      </c>
+      <c r="K7" s="2">
+        <v>43312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-132.9</v>
+        <v>94</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C8" s="1">
-        <v>55.192860000000003</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>-133.311306</v>
+      </c>
+      <c r="D8" s="1">
+        <v>55.740264000000003</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="2">
-        <v>43265</v>
+        <v>43</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="I8" s="2">
-        <v>43263</v>
+        <v>43251</v>
       </c>
       <c r="J8" s="2">
-        <v>43307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>43257</v>
+      </c>
+      <c r="K8" s="2">
+        <v>43312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
-        <v>-133.311306</v>
+        <v>75</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C9" s="1">
-        <v>55.740264000000003</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>-133.387067</v>
+      </c>
+      <c r="D9" s="1">
+        <v>55.621174000000003</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="2">
-        <v>43251</v>
+        <v>42</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I9" s="2">
-        <v>43257</v>
+        <v>43269</v>
       </c>
       <c r="J9" s="2">
-        <v>43312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>43276</v>
+      </c>
+      <c r="K9" s="2">
+        <v>43317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-133.15639899999999</v>
+        <v>73</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C10" s="1">
-        <v>55.865721000000001</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>-133.25000600000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>55.889904000000001</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="2">
-        <v>43249</v>
+        <v>43</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="I10" s="2">
-        <v>43257</v>
+        <v>43295</v>
       </c>
       <c r="J10" s="2">
-        <v>43312</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>43258</v>
+      </c>
+      <c r="K10" s="2">
+        <v>43317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1">
-        <v>-133.29047</v>
+        <v>79</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C11" s="1">
-        <v>55.733423000000002</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>-132.99431799999999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>55.264232</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="2">
-        <v>43250</v>
+        <v>42</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I11" s="2">
-        <v>43257</v>
+        <v>43278</v>
       </c>
       <c r="J11" s="2">
-        <v>43312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>43299</v>
+      </c>
+      <c r="K11" s="2">
+        <v>43310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1">
-        <v>-133.25000600000001</v>
+        <v>80</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C12" s="1">
-        <v>55.889904000000001</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>-132.9</v>
+      </c>
+      <c r="D12" s="1">
+        <v>55.192860000000003</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="2">
-        <v>43295</v>
+        <v>42</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I12" s="2">
-        <v>43258</v>
+        <v>43265</v>
       </c>
       <c r="J12" s="2">
-        <v>43317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>43263</v>
+      </c>
+      <c r="K12" s="2">
+        <v>43307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1">
-        <v>-132.84674100000001</v>
+        <v>95</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C13" s="1">
-        <v>55.214374999999997</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>-132.91014300000001</v>
+      </c>
+      <c r="D13" s="1">
+        <v>55.228251999999998</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="2">
+        <v>43266</v>
+      </c>
+      <c r="J13" s="2">
+        <v>43263</v>
+      </c>
+      <c r="K13" s="2">
+        <v>43307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-132.87914699999999</v>
+      </c>
+      <c r="D14" s="1">
+        <v>55.247539000000003</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="2">
+        <v>43266</v>
+      </c>
+      <c r="J14" s="2">
+        <v>43263</v>
+      </c>
+      <c r="K14" s="2">
+        <v>43307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-132.837131</v>
+      </c>
+      <c r="D15" s="1">
+        <v>55.241886999999998</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="2">
         <v>43267</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J15" s="2">
         <v>43263</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K15" s="2">
         <v>43307</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-132.82599999999999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>55.084800000000001</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="2">
+        <v>43323</v>
+      </c>
+      <c r="J16" s="2">
+        <v>43305</v>
+      </c>
+      <c r="K16" s="2">
+        <v>43322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-132.84251399999999</v>
+      </c>
+      <c r="D17" s="1">
+        <v>55.188785000000003</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="2">
+        <v>43265</v>
+      </c>
+      <c r="J17" s="2">
+        <v>43263</v>
+      </c>
+      <c r="K17" s="2">
+        <v>43307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-132.84674100000001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>55.214374999999997</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="2">
+        <v>43267</v>
+      </c>
+      <c r="J18" s="2">
+        <v>43263</v>
+      </c>
+      <c r="K18" s="2">
+        <v>43307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-132.97393199999999</v>
+      </c>
+      <c r="D19" s="1">
+        <v>55.227691</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="2">
+        <v>43294</v>
+      </c>
+      <c r="J19" s="2">
+        <v>43299</v>
+      </c>
+      <c r="K19" s="2">
+        <v>43307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="1">
+      <c r="C20" s="1">
         <v>-133.17081200000001</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D20" s="1">
         <v>55.496471999999997</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="H20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="2">
         <v>43279</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J20" s="2">
         <v>43290</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K20" s="2">
         <v>43320</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1">
-        <v>-132.87914699999999</v>
-      </c>
-      <c r="C15" s="1">
-        <v>55.247539000000003</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="2">
-        <v>43266</v>
-      </c>
-      <c r="I15" s="2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1">
+        <v>-133.17444699999999</v>
+      </c>
+      <c r="D21" s="1">
+        <v>55.485686999999999</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="2">
+        <v>43276</v>
+      </c>
+      <c r="J21" s="2">
+        <v>43290</v>
+      </c>
+      <c r="K21" s="2">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1">
+        <v>-133.147345</v>
+      </c>
+      <c r="D22" s="1">
+        <v>55.528424000000001</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="2">
         <v>43263</v>
       </c>
-      <c r="J15" s="2">
-        <v>43307</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1">
-        <v>-132.837131</v>
-      </c>
-      <c r="C16" s="1">
-        <v>55.241886999999998</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="2">
-        <v>43267</v>
-      </c>
-      <c r="I16" s="2">
-        <v>43263</v>
-      </c>
-      <c r="J16" s="2">
-        <v>43307</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1">
-        <v>-132.91014300000001</v>
-      </c>
-      <c r="C17" s="1">
-        <v>55.228251999999998</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="2">
-        <v>43266</v>
-      </c>
-      <c r="I17" s="2">
-        <v>43263</v>
-      </c>
-      <c r="J17" s="2">
-        <v>43307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="1">
-        <v>-133.34832599999999</v>
-      </c>
-      <c r="C18" s="1">
-        <v>55.709094</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="J22" s="2">
+        <v>43262</v>
+      </c>
+      <c r="K22" s="2">
+        <v>43315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-133.16043099999999</v>
+      </c>
+      <c r="D23" s="1">
+        <v>55.599083</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="2">
-        <v>43239</v>
-      </c>
-      <c r="I18" s="2">
-        <v>43225</v>
-      </c>
-      <c r="J18" s="2">
-        <v>43317</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="1">
-        <v>-133.32537199999999</v>
-      </c>
-      <c r="C19" s="1">
-        <v>55.722636999999999</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="2">
-        <v>43281</v>
-      </c>
-      <c r="I19" s="2">
-        <v>43225</v>
-      </c>
-      <c r="J19" s="2">
-        <v>43317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1">
-        <v>-133.16123200000001</v>
-      </c>
-      <c r="C20" s="1">
-        <v>55.362090000000002</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="2">
-        <v>43291</v>
-      </c>
-      <c r="I20" s="2">
-        <v>43290</v>
-      </c>
-      <c r="J20" s="2">
-        <v>43307</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1">
-        <v>-133.33402799999999</v>
-      </c>
-      <c r="C21" s="1">
-        <v>55.282136999999999</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="2">
-        <v>43322</v>
-      </c>
-      <c r="I21" s="2">
-        <v>43305</v>
-      </c>
-      <c r="J21" s="2">
-        <v>43326</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="1">
-        <v>-133.17444699999999</v>
-      </c>
-      <c r="C22" s="1">
-        <v>55.485686999999999</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" s="2">
-        <v>43276</v>
-      </c>
-      <c r="I22" s="2">
-        <v>43290</v>
-      </c>
-      <c r="J22" s="2">
-        <v>43320</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>-133.147345</v>
-      </c>
-      <c r="C23" s="1">
-        <v>55.528424000000001</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="2">
-        <v>43263</v>
+      <c r="H23" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="I23" s="2">
-        <v>43262</v>
+        <v>43268</v>
       </c>
       <c r="J23" s="2">
-        <v>43315</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="1">
-        <v>-133.377377</v>
+        <v>43296</v>
+      </c>
+      <c r="K23" s="2">
+        <v>43313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
       </c>
       <c r="C24" s="1">
-        <v>55.684275</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>39</v>
+        <v>-133.43003200000001</v>
+      </c>
+      <c r="D24" s="1">
+        <v>55.552180999999997</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="2">
-        <v>43238</v>
+      <c r="H24" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I24" s="2">
-        <v>43227</v>
+        <v>43293</v>
       </c>
       <c r="J24" s="2">
-        <v>43293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="1">
-        <v>-133.16043099999999</v>
+        <v>43243</v>
+      </c>
+      <c r="K24" s="2">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
       </c>
       <c r="C25" s="1">
-        <v>55.599083</v>
-      </c>
-      <c r="D25" s="1" t="s">
+        <v>-133.33402799999999</v>
+      </c>
+      <c r="D25" s="1">
+        <v>55.282136999999999</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="2">
+        <v>43322</v>
+      </c>
+      <c r="J25" s="2">
+        <v>43305</v>
+      </c>
+      <c r="K25" s="2">
+        <v>43326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="1">
+        <v>-133.16123200000001</v>
+      </c>
+      <c r="D26" s="1">
+        <v>55.362090000000002</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="2">
+        <v>43291</v>
+      </c>
+      <c r="J26" s="2">
+        <v>43290</v>
+      </c>
+      <c r="K26" s="2">
+        <v>43307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="1">
+        <v>-133.21551199999999</v>
+      </c>
+      <c r="D27" s="1">
+        <v>55.585855000000002</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="2">
-        <v>43268</v>
-      </c>
-      <c r="I25" s="2">
-        <v>43296</v>
-      </c>
-      <c r="J25" s="2">
+      <c r="G27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="2">
+        <v>43292</v>
+      </c>
+      <c r="J27" s="2">
+        <v>43300</v>
+      </c>
+      <c r="K27" s="2">
         <v>43313</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="1">
-        <v>-132.99431799999999</v>
-      </c>
-      <c r="C26" s="1">
-        <v>55.264232</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H26" s="2">
-        <v>43278</v>
-      </c>
-      <c r="I26" s="2">
-        <v>43299</v>
-      </c>
-      <c r="J26" s="2">
-        <v>43310</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="1">
-        <v>-132.84251399999999</v>
-      </c>
-      <c r="C27" s="1">
-        <v>55.188785000000003</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H27" s="2">
-        <v>43265</v>
-      </c>
-      <c r="I27" s="2">
-        <v>43263</v>
-      </c>
-      <c r="J27" s="2">
-        <v>43307</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:J27">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K27">
     <sortCondition ref="A2:A27"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
